--- a/Day3/StudentAPI+TestCases.xlsx
+++ b/Day3/StudentAPI+TestCases.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\API_Test_Udemy\Day2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual-API-Test-Udemy-13 hours-with- pravan_kumar\Day3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F971FC06-9391-4F71-A62E-847E7FDE639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1127BD-08FB-4BDA-9FA9-D76EFCB00E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D153E42C-4ADE-468F-B5F1-21164F018855}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D153E42C-4ADE-468F-B5F1-21164F018855}"/>
   </bookViews>
   <sheets>
     <sheet name="Students API Test Cases" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -287,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -320,6 +318,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,14 +641,14 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
@@ -710,7 +711,7 @@
       <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
